--- a/src/zh/openpyxl/worksheets/Append.xlsx
+++ b/src/zh/openpyxl/worksheets/Append.xlsx
@@ -4,11 +4,16 @@
   <workbookPr date1904="1"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Phones" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cups" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pens" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Flowers" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Empty" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -44,12 +49,18 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,21 +76,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -276,44 +293,44 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <f>A1*B1</f>
         <v/>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f>A2*B2</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
         <v>1.7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>2.8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f>A3*B3</f>
         <v/>
       </c>
@@ -334,6 +351,276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="B1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>iPhone 100</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>iPhone 13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>FIFA</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4">
+        <f>A1*B1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <f>A2*B2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f>A3*B3</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+      <c r="B2" s="4">
+        <f>B1</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="C3" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
